--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-6.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-6.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="880">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-6.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-6.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61806" uniqueCount="880">
   <si>
     <t>ANSPs</t>
   </si>
@@ -30783,7 +30783,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>90</v>
@@ -30801,7 +30801,7 @@
         <v>90</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>90</v>
@@ -30870,22 +30870,22 @@
         <v>90</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="AI2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="AK2" s="5" t="s">
         <v>90</v>
@@ -32196,7 +32196,7 @@
         <v>90</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>90</v>
@@ -32211,7 +32211,7 @@
         <v>90</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>90</v>
@@ -32277,10 +32277,10 @@
         <v>90</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>90</v>
@@ -32758,22 +32758,22 @@
         <v>90</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>90</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>90</v>
@@ -32806,7 +32806,7 @@
         <v>90</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="T19" s="5" t="s">
         <v>90</v>
@@ -32818,7 +32818,7 @@
         <v>90</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="X19" s="5" t="s">
         <v>90</v>
@@ -32842,7 +32842,7 @@
         <v>90</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="AF19" s="5" t="s">
         <v>90</v>
@@ -32851,16 +32851,16 @@
         <v>90</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="AI19" s="5" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="AJ19" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AK19" s="5" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="AL19" s="5" t="s">
         <v>90</v>
@@ -32874,19 +32874,19 @@
         <v>90</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>90</v>
@@ -32898,10 +32898,10 @@
         <v>90</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>90</v>
@@ -32910,13 +32910,13 @@
         <v>90</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>90</v>
@@ -32925,10 +32925,10 @@
         <v>90</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>90</v>
@@ -32937,7 +32937,7 @@
         <v>90</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>90</v>
@@ -32952,13 +32952,13 @@
         <v>90</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="AD20" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="AF20" s="5" t="s">
         <v>90</v>
@@ -32967,10 +32967,10 @@
         <v>90</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>90</v>
@@ -33109,7 +33109,7 @@
         <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>90</v>
@@ -33121,7 +33121,7 @@
         <v>90</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>90</v>
@@ -33163,7 +33163,7 @@
         <v>90</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>90</v>
@@ -33178,7 +33178,7 @@
         <v>90</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>90</v>
@@ -33193,7 +33193,7 @@
         <v>90</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="AG22" s="5" t="s">
         <v>90</v>
@@ -33208,7 +33208,7 @@
         <v>90</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="AL22" s="5" t="s">
         <v>90</v>
@@ -33463,43 +33463,43 @@
         <v>90</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>90</v>
@@ -33508,7 +33508,7 @@
         <v>90</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>90</v>
@@ -33520,7 +33520,7 @@
         <v>90</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>90</v>
@@ -33535,7 +33535,7 @@
         <v>90</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="AE25" s="5" t="s">
         <v>90</v>
@@ -33544,10 +33544,10 @@
         <v>90</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>90</v>
@@ -33556,10 +33556,10 @@
         <v>90</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="26">
@@ -33573,7 +33573,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>90</v>
@@ -33639,10 +33639,10 @@
         <v>90</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>90</v>
@@ -33657,7 +33657,7 @@
         <v>90</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>90</v>
@@ -33669,7 +33669,7 @@
         <v>90</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="AK26" s="5" t="s">
         <v>90</v>
@@ -33802,52 +33802,52 @@
         <v>90</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>305</v>
+        <v>137</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="S28" s="5" t="s">
         <v>90</v>
@@ -33856,16 +33856,16 @@
         <v>90</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>90</v>
@@ -33877,13 +33877,13 @@
         <v>90</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="AE28" s="5" t="s">
         <v>90</v>
@@ -33892,13 +33892,13 @@
         <v>90</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="AH28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="AJ28" s="5" t="s">
         <v>90</v>
@@ -35075,115 +35075,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="40">
@@ -35191,115 +35191,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35307,115 +35307,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>100</v>
+        <v>309</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>100</v>
+        <v>341</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>100</v>
+        <v>379</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>100</v>
+        <v>431</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>100</v>
+        <v>463</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>100</v>
+        <v>508</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>100</v>
+        <v>530</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>100</v>
+        <v>558</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>100</v>
+        <v>586</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>100</v>
+        <v>608</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>100</v>
+        <v>638</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>100</v>
+        <v>654</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>100</v>
+        <v>683</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>100</v>
+        <v>715</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>100</v>
+        <v>732</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>100</v>
+        <v>767</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>100</v>
+        <v>802</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>100</v>
+        <v>838</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>100</v>
+        <v>869</v>
       </c>
     </row>
     <row r="42">
